--- a/_Resources/配置表/游戏配置表/C_游戏数据表.xlsx
+++ b/_Resources/配置表/游戏配置表/C_游戏数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16500" windowHeight="6735" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="EventData" sheetId="1" r:id="rId1"/>
@@ -1146,8 +1146,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1156,7 +1156,7 @@
     <col min="2" max="2" width="24.9083333333333" customWidth="1"/>
     <col min="3" max="3" width="19.3083333333333" customWidth="1"/>
     <col min="4" max="4" width="15.2666666666667" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:5">
@@ -1409,7 +1409,7 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
